--- a/MATLAB/Component Selection.xlsx
+++ b/MATLAB/Component Selection.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
   <si>
     <t>FileNo</t>
   </si>
@@ -22,22 +22,31 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>Selected components</t>
-  </si>
-  <si>
-    <t>Has any good components</t>
+    <t>Brain Components</t>
+  </si>
+  <si>
+    <t>Preparation Oriented Components</t>
+  </si>
+  <si>
+    <t>Has Good Components</t>
   </si>
   <si>
     <t>Needs Review</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>DS01</t>
   </si>
   <si>
     <t>13_09_01_03_19_ICA.set</t>
   </si>
   <si>
-    <t>15, 20, 31, 39, 41, 43</t>
+    <t>14, 20, 21</t>
+  </si>
+  <si>
+    <t>19, 22, 24, 25, 26, 27, 39, 41, 42</t>
   </si>
   <si>
     <t/>
@@ -49,7 +58,10 @@
     <t>15_29_04_03_19_ICA.set</t>
   </si>
   <si>
-    <t>7, 8, 16, 22, 24, 31, 40, 48</t>
+    <t>12, 13, 16, 28, 33, 42, 44</t>
+  </si>
+  <si>
+    <t>7, 8, 22, 49, 61</t>
   </si>
   <si>
     <t>DS03</t>
@@ -58,13 +70,19 @@
     <t>09_12_14_03_19_ICA.set</t>
   </si>
   <si>
-    <t>4, 16, 21, 59</t>
+    <t>14, 19, 32, 46</t>
+  </si>
+  <si>
+    <t>5, 6, 18, 28, 37, 48, 61</t>
   </si>
   <si>
     <t>10_49_14_03_19_ICA.set</t>
   </si>
   <si>
-    <t>4, 5, 7, 8, 50</t>
+    <t>7, 13, 38, 55, 56, 64</t>
+  </si>
+  <si>
+    <t>5, 6, 12, 16, 18, 24, 25, 52</t>
   </si>
   <si>
     <t>DS04</t>
@@ -73,7 +91,10 @@
     <t>09_04_11_03_19_ICA.set</t>
   </si>
   <si>
-    <t>28</t>
+    <t>5, 15</t>
+  </si>
+  <si>
+    <t>18, 23, 24, 29, 33, 37, 40, 41, 42, 48, 49, 52, 56</t>
   </si>
   <si>
     <t>DS05</t>
@@ -82,7 +103,10 @@
     <t>12_50_18_03_19_ICA.set</t>
   </si>
   <si>
-    <t>5, 6, 12, 13, 19, 37</t>
+    <t>8, 9, 15, 17, 25</t>
+  </si>
+  <si>
+    <t>5, 6, 13, 35, 38, 39, 44, 53</t>
   </si>
   <si>
     <t>DS08</t>
@@ -91,7 +115,10 @@
     <t>13_01_11_03_19_ICA.set</t>
   </si>
   <si>
-    <t>9, 10, 21, 49</t>
+    <t>17, 27, 30, 46</t>
+  </si>
+  <si>
+    <t>7, 8, 16, 28, 31, 43, 47, 50</t>
   </si>
   <si>
     <t>DS09</t>
@@ -100,7 +127,10 @@
     <t>12_40_28_03_19_ICA.set</t>
   </si>
   <si>
-    <t>10, 11, 15, 24, 25, 37, 41, 48</t>
+    <t>19, 25, 26, 36, 39, 41</t>
+  </si>
+  <si>
+    <t>10, 12, 13, 18, 22, 23, 35, 53</t>
   </si>
   <si>
     <t>DS10</t>
@@ -109,7 +139,10 @@
     <t>09_14_08_03_19_ICA.set</t>
   </si>
   <si>
-    <t>6, 7, 10, 15, 17, 35</t>
+    <t>9, 21, 36, 44, 59</t>
+  </si>
+  <si>
+    <t>5, 6, 12, 16, 24, 42, 45</t>
   </si>
   <si>
     <t>DS11</t>
@@ -118,13 +151,19 @@
     <t>08_59_07_03_19_ICA.set</t>
   </si>
   <si>
-    <t>8, 9, 13, 18, 23, 27, 50, 55</t>
+    <t>18, 26, 29, 37, 38, 41</t>
+  </si>
+  <si>
+    <t>11, 12, 14, 19, 36, 39, 48, 52, 57</t>
   </si>
   <si>
     <t>11_14_07_03_19_ICA.set</t>
   </si>
   <si>
-    <t>6, 8, 17, 21, 39, 40, 50, 52, 58</t>
+    <t>13, 18, 42, 58</t>
+  </si>
+  <si>
+    <t>8, 15, 21, 36, 49</t>
   </si>
   <si>
     <t>DS12</t>
@@ -133,7 +172,7 @@
     <t>09_24_13_03_19_ICA.set</t>
   </si>
   <si>
-    <t>4, 5, 8, 16, 18, 36, 44, 61, 64</t>
+    <t>4, 5, 9, 17, 21, 49, 55, 60</t>
   </si>
   <si>
     <t>DS16</t>
@@ -142,7 +181,10 @@
     <t>09_37_22_03_19_ICA.set</t>
   </si>
   <si>
-    <t>5, 6, 14, 17, 27, 37</t>
+    <t>20, 30, 40</t>
+  </si>
+  <si>
+    <t>5, 6, 15, 22, 32, 50, 55, 63</t>
   </si>
   <si>
     <t>DS19</t>
@@ -151,19 +193,25 @@
     <t>09_25_21_03_19_ICA.set</t>
   </si>
   <si>
-    <t>5, 7, 24</t>
+    <t>20, 21, 28</t>
+  </si>
+  <si>
+    <t>6, 7, 31</t>
   </si>
   <si>
     <t>10_26_21_03_19_ICA.set</t>
   </si>
   <si>
-    <t>4, 5, 13, 30, 36, 38, 46</t>
+    <t>19, 55, 63</t>
+  </si>
+  <si>
+    <t>4, 5, 13, 18, 37, 50, 53</t>
   </si>
   <si>
     <t>11_39_21_03_19_ICA.set</t>
   </si>
   <si>
-    <t>3, 4, 21, 30, 35, 55</t>
+    <t>3, 4, 8, 9, 29, 34</t>
   </si>
   <si>
     <t>DS21</t>
@@ -172,7 +220,10 @@
     <t>09_05_27_03_19_ICA.set</t>
   </si>
   <si>
-    <t>14, 22, 29, 44, 47, 49, 61</t>
+    <t>28, 35</t>
+  </si>
+  <si>
+    <t>16, 27, 30, 47, 50, 52</t>
   </si>
   <si>
     <t>DS22</t>
@@ -181,13 +232,16 @@
     <t>11_57_01_04_19_ICA.set</t>
   </si>
   <si>
-    <t>9, 20, 22, 28, 34, 40, 42, 57</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>9, 19, 20, 26, 28, 32, 34, 44, 54</t>
   </si>
   <si>
     <t>14_04_01_04_19_ICA.set</t>
   </si>
   <si>
-    <t>13, 16, 18, 31, 60</t>
+    <t>8, 14, 18, 25, 33, 39, 48</t>
   </si>
   <si>
     <t>DS23</t>
@@ -196,13 +250,19 @@
     <t>11_49_15_04_19_ICA.set</t>
   </si>
   <si>
-    <t>14, 15, 16, 22, 27,34, 38, 42</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15, 23, 29, 32, 47, 58, 62, 64</t>
   </si>
   <si>
     <t>13_30_15_04_19_ICA.set</t>
   </si>
   <si>
-    <t>14, 15, 16, 17, 19, 23, 27, 41, 45, 47, 48</t>
+    <t>8, 10, 19, 20, 39</t>
+  </si>
+  <si>
+    <t>7, 14, 15, 16, 18, 25, 31, 50, 52</t>
   </si>
   <si>
     <t>DS27</t>
@@ -211,16 +271,16 @@
     <t>16_54_25_03_19_ICA.set</t>
   </si>
   <si>
-    <t>4, 18, 31, 40</t>
-  </si>
-  <si>
     <t>DS28</t>
   </si>
   <si>
     <t>13_10_29_03_19_ICA.set</t>
   </si>
   <si>
-    <t>10, 14, 16, 17, 19,  40, 46, 54</t>
+    <t>14, 51, 54, 57</t>
+  </si>
+  <si>
+    <t>15, 16, 18, 30, 31, 39, 45, 48, 49, 62</t>
   </si>
   <si>
     <t>DS29</t>
@@ -229,7 +289,10 @@
     <t>08_48_15_03_19_ICA.set</t>
   </si>
   <si>
-    <t>9, 10, 11, 12, 14, 21, 45, 48</t>
+    <t>16, 44</t>
+  </si>
+  <si>
+    <t>7, 9, 10, 11, 14, 17, 18, 19, 22, 40</t>
   </si>
   <si>
     <t>DS31</t>
@@ -238,7 +301,7 @@
     <t>08_13_01_04_19_ICA.set</t>
   </si>
   <si>
-    <t>8, 9, 19, 24, 27, 29, 40, 48, 52</t>
+    <t>6, 7, 8, 9, 12, 13, 15, 19, 29, 33, 38, 51</t>
   </si>
   <si>
     <t>DS32</t>
@@ -247,7 +310,10 @@
     <t>08_13_15_04_19_ICA.set</t>
   </si>
   <si>
-    <t>12, 20, 21, 24, 31, 44, 45, 46, 55</t>
+    <t>11, 14</t>
+  </si>
+  <si>
+    <t>16, 20, 29, 31, 37, 46, 49, 63</t>
   </si>
   <si>
     <t>DS33</t>
@@ -256,7 +322,10 @@
     <t>08_09_18_04_19_ICA.set</t>
   </si>
   <si>
-    <t>3, 9, 10, 12, 16, 17, 18, 20, 21, 29, 30, 31, 41</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>9, 10, 13, 25, 28, 31, 33, 45, 58, 64</t>
   </si>
   <si>
     <t>DS95</t>
@@ -265,7 +334,10 @@
     <t>12_02_11_04_19_ICA.set</t>
   </si>
   <si>
-    <t>17, 20, 31</t>
+    <t>11, 14, 34, 48</t>
+  </si>
+  <si>
+    <t>15, 17, 20, 26, 36, 37, 46, 52, 55, 62</t>
   </si>
   <si>
     <t>DS97</t>
@@ -274,7 +346,7 @@
     <t>12_05_18_04_19_ICA.set</t>
   </si>
   <si>
-    <t>9, 12, 22, 23, 30</t>
+    <t>9, 13, 15, 17, 21, 22, 23, 26, 27, 39, 45, 46</t>
   </si>
   <si>
     <t>DS98</t>
@@ -283,13 +355,16 @@
     <t>09_35_12_03_19_ICA.set</t>
   </si>
   <si>
-    <t>17, 18, 22, 23, 36, 47, 55, 61</t>
+    <t>15, 16, 17, 19, 24, 25, 29, 32, 38, 39,45,46,50,52,54,63</t>
   </si>
   <si>
     <t>11_43_12_03_19_ICA.set</t>
   </si>
   <si>
-    <t>9, 10, 26, 32, 36, 43, 45, 49, 54, 61</t>
+    <t>31,49</t>
+  </si>
+  <si>
+    <t>10,14,26,29,32,36,40,44, 50,54,58,61,63</t>
   </si>
   <si>
     <t>DS99</t>
@@ -298,14 +373,17 @@
     <t>10_19_25_04_19_ICA.set</t>
   </si>
   <si>
-    <t>11, 13, 18, 47, 55, 56</t>
+    <t>39,60</t>
+  </si>
+  <si>
+    <t>12,21,24,26,27,29,52,55,58,62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -316,13 +394,23 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,18 +419,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -566,11 +657,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="6.0"/>
     <col customWidth="1" min="2" max="2" width="9.71"/>
-    <col customWidth="1" min="3" max="3" width="24.71"/>
-    <col customWidth="1" min="4" max="4" width="44.57"/>
-    <col customWidth="1" min="5" max="5" width="24.29"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="4" width="35.57"/>
+    <col customWidth="1" min="5" max="5" width="51.29"/>
+    <col customWidth="1" min="6" max="6" width="14.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -583,47 +675,55 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.0</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -631,25 +731,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.0</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -657,25 +760,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.0</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -683,25 +789,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -709,25 +818,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -735,25 +847,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.0</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -761,25 +876,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.0</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -787,25 +905,28 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.0</v>
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -813,25 +934,28 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.0</v>
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -839,25 +963,28 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -865,25 +992,28 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -891,25 +1021,26 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.0</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -917,25 +1048,28 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0</v>
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -943,25 +1077,28 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.0</v>
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -969,25 +1106,28 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.0</v>
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -995,25 +1135,26 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.0</v>
+        <v>65</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1021,25 +1162,28 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.0</v>
+        <v>68</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1047,25 +1191,28 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.0</v>
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1073,25 +1220,26 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.0</v>
+        <v>75</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1099,25 +1247,28 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.0</v>
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1125,25 +1276,28 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.0</v>
+        <v>81</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>9</v>
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1151,25 +1305,24 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>9</v>
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1177,25 +1330,28 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1203,25 +1359,28 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1388,26 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1255,25 +1415,28 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1281,25 +1444,28 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1307,25 +1473,28 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1333,25 +1502,26 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1359,25 +1529,26 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>9</v>
+        <v>113</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1385,25 +1556,28 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>9</v>
+        <v>115</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1411,25 +1585,28 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
